--- a/biology/Écologie/Kétoconazole/Kétoconazole.xlsx
+++ b/biology/Écologie/Kétoconazole/Kétoconazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9toconazole</t>
+          <t>Kétoconazole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le kétoconazole (R41400) est un antifongique de la classe des imidazoles.
-En 2013, l'agence européenne des médicaments recommande la suspension de l'autorisation de la commercialisation de la forme orale devant les risques hépatiques[2].
+En 2013, l'agence européenne des médicaments recommande la suspension de l'autorisation de la commercialisation de la forme orale devant les risques hépatiques.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%A9toconazole</t>
+          <t>Kétoconazole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kétoconazole est synthétisé en 7 étapes à partir de la réaction de la 2,4-dichloroacétophénone avec la glycérine ou propan-1,2,3-triol :
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%A9toconazole</t>
+          <t>Kétoconazole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kétoconazole inhibe la synthèse de l'ergostérol, molécule constitutive de la membrane fongique.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K%C3%A9toconazole</t>
+          <t>Kétoconazole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Produits contenant du kétoconazole</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nizoral[3]
-Ketoderm[4]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nizoral
+Ketoderm</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>K%C3%A9toconazole</t>
+          <t>Kétoconazole</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est l'imidazole donnant le plus d'insuffisance hépatique aiguë[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'imidazole donnant le plus d'insuffisance hépatique aiguë.
 </t>
         </is>
       </c>
